--- a/Best_ind_2.xlsx
+++ b/Best_ind_2.xlsx
@@ -477,28 +477,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2313767755690234</v>
+        <v>0.3616982624340854</v>
       </c>
       <c r="B2" t="n">
-        <v>2.882224533829094</v>
+        <v>2.57194451268226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4843619950238698</v>
+        <v>0.2862424460272125</v>
       </c>
       <c r="D2" t="n">
-        <v>1.947116883471476</v>
+        <v>1.080213103429255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7241186428001185</v>
+        <v>2.409301785069226</v>
       </c>
       <c r="F2" t="n">
-        <v>3.789231572147667</v>
+        <v>5.811693664397188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1835222234731614</v>
+        <v>0.8582314598337656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1656990402487605</v>
+        <v>0.3237963196620032</v>
       </c>
     </row>
   </sheetData>
